--- a/biology/Botanique/Dolichos_axilliflorus/Dolichos_axilliflorus.xlsx
+++ b/biology/Botanique/Dolichos_axilliflorus/Dolichos_axilliflorus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dolichos axilliflorus Verdc. est une espèce de plantes du genre Dolichos[2], de la famille des Fabaceae[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dolichos axilliflorus Verdc. est une espèce de plantes du genre Dolichos, de la famille des Fabaceae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante à fleur, appartenant au groupe des dicotylédones[3]. Elle est native du Cameroun[4],[5], et est décrite comme étant une plante grimpante; légèrement ligneuse, avec de fruit inconnu; et atteignant environ 6 m de haut. son habitat naturel se trouve dans les galeries forestière, à 1 200 m d'altitude environ[6].
-Elle se retrouve au Bénin, Cameroun et en Éthiopie[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante à fleur, appartenant au groupe des dicotylédones. Elle est native du Cameroun et est décrite comme étant une plante grimpante; légèrement ligneuse, avec de fruit inconnu; et atteignant environ 6 m de haut. son habitat naturel se trouve dans les galeries forestière, à 1 200 m d'altitude environ.
+Elle se retrouve au Bénin, Cameroun et en Éthiopie.
 </t>
         </is>
       </c>
